--- a/xlsx/考古學_intext.xlsx
+++ b/xlsx/考古學_intext.xlsx
@@ -29,7 +29,7 @@
     <t>西班牙</t>
   </si>
   <si>
-    <t>政策_政策_政治學_考古學</t>
+    <t>体育运动_体育运动_文化_考古學</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%94%E6%99%AE%E5%9F%83%E5%B0%94%E5%8D%A1%E5%B1%B1</t>
